--- a/文件/发货单-【测试请忽略】.xlsx
+++ b/文件/发货单-【测试请忽略】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="180"/>
+    <workbookView windowWidth="27952" windowHeight="12255" tabRatio="180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="82" r:id="rId1"/>
@@ -31,32 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>杭州南泵流体机械有限公司发货通知单2025年（11月07日发货单）上海办25110701</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>发件人：***</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  联系电话：0571-88888888  收件工厂：3900工厂</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">              杭州南泵流体机械 发货通知单    2025年11月13日订单  杭泵无锡办2025111302</t>
+  </si>
+  <si>
+    <t>发件人：吴琼   联系电话：135*******  收件工厂：杭州南泵</t>
   </si>
   <si>
     <t>编号</t>
@@ -105,28 +85,31 @@
     </r>
   </si>
   <si>
-    <t>上海办2025-11-07-01</t>
-  </si>
-  <si>
-    <t>上海南淼企业发展有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDLF32-60FSWSC </t>
-  </si>
-  <si>
-    <t>送货/上海市/闵行区/申南路535号3号楼105室/曹凤/13501951575</t>
-  </si>
-  <si>
-    <t>合计：</t>
+    <t>杭泵无锡办2025111302</t>
+  </si>
+  <si>
+    <t>无锡市灵浩五金机电有限公司</t>
+  </si>
+  <si>
+    <t>CDL4-6FSWPC</t>
+  </si>
+  <si>
+    <t>中通送货/山西省 /吕梁市/ 离石区 /枣林乡/ 结绳墕村/高建/14701339906-7044</t>
   </si>
   <si>
     <t>合同号：H000888888</t>
   </si>
   <si>
+    <t>是否安装调试验收</t>
+  </si>
+  <si>
     <t>备注1：</t>
   </si>
   <si>
-    <t>备注2：</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>备注2：现货，今天发货</t>
   </si>
 </sst>
 </file>
@@ -1393,20 +1376,20 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="87" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.775" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.775" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.775" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.775" style="1" customWidth="1"/>
-    <col min="7" max="8" width="7.775" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="41.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6283185840708" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7787610619469" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.2477876106195" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7787610619469" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.7787610619469" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.7787610619469" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.7787610619469" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.1238938053097" style="1" customWidth="1"/>
+    <col min="10" max="10" width="41.3716814159292" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1438,7 +1421,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="17.25" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="16.15" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1478,26 +1461,23 @@
         <v>13</v>
       </c>
       <c r="C4" s="9">
-        <v>1100143447</v>
+        <v>1100142754</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="10">
-        <v>3900</v>
-      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4">
-        <v>5568</v>
+        <v>1004</v>
       </c>
       <c r="H4" s="4">
-        <f>G4*F4</f>
-        <v>5568</v>
+        <v>1004</v>
       </c>
       <c r="I4" s="11">
-        <v>45969</v>
+        <v>45974</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>15</v>
@@ -1519,9 +1499,7 @@
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="15">
         <f>SUM(F4:F5)</f>
@@ -1530,17 +1508,19 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4">
         <f>SUM(H4:H5)</f>
-        <v>5568</v>
+        <v>1004</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="12"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
       <c r="A7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
         <v>18</v>
       </c>
@@ -1554,9 +1534,11 @@
     <row r="8" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="D8" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
